--- a/rutina.xlsx
+++ b/rutina.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="92">
   <si>
     <t>Week 1</t>
   </si>
@@ -114,7 +114,7 @@
     <t>35kg</t>
   </si>
   <si>
-    <t>5.0kg</t>
+    <t>7.5kg</t>
   </si>
   <si>
     <t>55.0kg</t>
@@ -141,7 +141,7 @@
     <t>125lbs</t>
   </si>
   <si>
-    <t>12.5kg</t>
+    <t>15.0kg</t>
   </si>
   <si>
     <t>Week 3</t>
@@ -156,148 +156,145 @@
     <t>120lbs</t>
   </si>
   <si>
-    <t>7.5kg</t>
-  </si>
-  <si>
     <t>135lbs</t>
   </si>
   <si>
+    <t>22.5kg</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>3x8</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>4x6</t>
+  </si>
+  <si>
+    <t>1+x6</t>
+  </si>
+  <si>
+    <t>3-4x8-12</t>
+  </si>
+  <si>
+    <t>130lbs</t>
+  </si>
+  <si>
+    <t>140lbs</t>
+  </si>
+  <si>
+    <t>40kg</t>
+  </si>
+  <si>
+    <t>30.0kg</t>
+  </si>
+  <si>
+    <t>57.5kg</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>4x5</t>
+  </si>
+  <si>
+    <t>1+x5</t>
+  </si>
+  <si>
     <t>20.0kg</t>
   </si>
   <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>3x8</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>4x6</t>
-  </si>
-  <si>
-    <t>1+x6</t>
-  </si>
-  <si>
-    <t>3-4x8-12</t>
-  </si>
-  <si>
-    <t>130lbs</t>
-  </si>
-  <si>
-    <t>15.0kg</t>
-  </si>
-  <si>
-    <t>140lbs</t>
-  </si>
-  <si>
-    <t>40kg</t>
+    <t>150lbs</t>
+  </si>
+  <si>
+    <t>40.0kg</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>1+x4</t>
+  </si>
+  <si>
+    <t>145lbs</t>
   </si>
   <si>
     <t>27.5kg</t>
   </si>
   <si>
-    <t>57.5kg</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>4x5</t>
-  </si>
-  <si>
-    <t>1+x5</t>
-  </si>
-  <si>
-    <t>150lbs</t>
+    <t>160lbs</t>
+  </si>
+  <si>
+    <t>47.5kg</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>3x4</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>3-4x5-8</t>
+  </si>
+  <si>
+    <t>32.5kg</t>
+  </si>
+  <si>
+    <t>165lbs</t>
+  </si>
+  <si>
+    <t>52.5kg</t>
+  </si>
+  <si>
+    <t>62.5kg</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>3x2</t>
+  </si>
+  <si>
+    <t>37.5kg</t>
+  </si>
+  <si>
+    <t>175lbs</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>1+x1</t>
+  </si>
+  <si>
+    <t>155lbs</t>
+  </si>
+  <si>
+    <t>170lbs</t>
   </si>
   <si>
     <t>35.0kg</t>
   </si>
   <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>4x4</t>
-  </si>
-  <si>
-    <t>1+x4</t>
-  </si>
-  <si>
-    <t>145lbs</t>
-  </si>
-  <si>
-    <t>160lbs</t>
-  </si>
-  <si>
-    <t>42.5kg</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>3x4</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>3x3</t>
-  </si>
-  <si>
-    <t>3-4x5-8</t>
-  </si>
-  <si>
-    <t>32.5kg</t>
-  </si>
-  <si>
-    <t>165lbs</t>
-  </si>
-  <si>
-    <t>47.5kg</t>
-  </si>
-  <si>
-    <t>62.5kg</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>3x2</t>
-  </si>
-  <si>
-    <t>37.5kg</t>
-  </si>
-  <si>
-    <t>175lbs</t>
-  </si>
-  <si>
-    <t>52.5kg</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>1x1</t>
-  </si>
-  <si>
-    <t>1+x1</t>
-  </si>
-  <si>
-    <t>155lbs</t>
-  </si>
-  <si>
-    <t>170lbs</t>
-  </si>
-  <si>
     <t>190lbs</t>
   </si>
   <si>
-    <t>50.0kg</t>
-  </si>
-  <si>
-    <t>65.0kg</t>
+    <t>70.0kg</t>
   </si>
   <si>
     <t>Week 12</t>
@@ -1308,7 +1305,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1380,7 +1377,7 @@
         <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1481,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1495,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1509,10 +1506,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1523,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -1607,10 +1604,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1621,10 +1618,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1635,10 +1632,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1649,10 +1646,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1726,7 +1723,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -1735,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1749,10 +1746,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1763,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>88</v>
@@ -1777,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>88</v>
@@ -1794,7 +1791,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1854,7 +1851,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
@@ -1863,10 +1860,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1877,10 +1874,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1891,10 +1888,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1905,10 +1902,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -2009,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2084,7 +2081,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -2093,10 +2090,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2179,10 +2176,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -2196,7 +2193,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2256,7 +2253,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -2265,10 +2262,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -2882,7 +2879,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2896,7 +2893,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -2982,7 +2979,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -2996,7 +2993,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -3082,7 +3079,7 @@
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -3096,7 +3093,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -3188,7 +3185,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -3197,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>36</v>
@@ -3272,7 +3269,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -3281,7 +3278,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3356,7 +3353,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -3365,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
@@ -3442,7 +3439,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -3451,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>38</v>
@@ -3546,7 +3543,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -3555,10 +3552,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3569,10 +3566,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -3583,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3595,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3607,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -3653,10 +3650,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -3667,10 +3664,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -3681,7 +3678,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -3695,7 +3692,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3707,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3744,7 +3741,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -3753,10 +3750,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -3767,10 +3764,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -3781,10 +3778,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -3795,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3807,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3844,7 +3841,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -3853,10 +3850,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -3867,10 +3864,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -3881,10 +3878,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -3895,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3907,7 +3904,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -3971,10 +3968,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3985,10 +3982,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -3999,7 +3996,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4011,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4023,7 +4020,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4060,7 +4057,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -4069,10 +4066,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4083,10 +4080,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -4097,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -4111,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4123,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4160,7 +4157,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -4169,10 +4166,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -4183,10 +4180,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -4197,10 +4194,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -4211,7 +4208,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4223,7 +4220,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -4269,10 +4266,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -4283,10 +4280,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -4297,10 +4294,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -4311,7 +4308,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4323,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -4387,10 +4384,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -4401,10 +4398,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -4415,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4427,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4439,7 +4436,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4476,7 +4473,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -4485,10 +4482,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -4499,10 +4496,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -4513,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -4527,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4539,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -4576,7 +4573,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -4585,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>67</v>
@@ -4599,7 +4596,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>67</v>
@@ -4613,10 +4610,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -4627,7 +4624,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4639,7 +4636,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4676,7 +4673,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -4685,7 +4682,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>68</v>
@@ -4699,7 +4696,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>68</v>
@@ -4713,10 +4710,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -4727,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4739,7 +4736,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4806,7 +4803,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -4817,7 +4814,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4829,7 +4826,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4841,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4890,7 +4887,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -4901,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
@@ -4915,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4927,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -4976,7 +4973,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -4987,10 +4984,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -5001,7 +4998,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5013,7 +5010,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5062,7 +5059,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -5073,10 +5070,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -5087,7 +5084,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5099,7 +5096,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -5166,7 +5163,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -5350,7 +5347,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
     </row>
